--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65190.50680137637</v>
+        <v>65190.50680137639</v>
       </c>
     </row>
     <row r="7">
@@ -26326,10 +26328,10 @@
         <v>30058.26294309333</v>
       </c>
       <c r="G2" t="n">
+        <v>30058.26294309334</v>
+      </c>
+      <c r="H2" t="n">
         <v>30058.26294309333</v>
-      </c>
-      <c r="H2" t="n">
-        <v>30058.26294309334</v>
       </c>
       <c r="I2" t="n">
         <v>30058.26294309333</v>
@@ -26344,7 +26346,7 @@
         <v>30058.26294309333</v>
       </c>
       <c r="M2" t="n">
-        <v>30058.26294309333</v>
+        <v>30058.26294309334</v>
       </c>
       <c r="N2" t="n">
         <v>30058.26294309333</v>
@@ -26531,10 +26533,10 @@
         <v>18786.41433943333</v>
       </c>
       <c r="F6" t="n">
-        <v>18786.41433943333</v>
+        <v>18786.41433943334</v>
       </c>
       <c r="G6" t="n">
-        <v>18786.41433943333</v>
+        <v>18786.41433943334</v>
       </c>
       <c r="H6" t="n">
         <v>18786.41433943334</v>
@@ -26543,7 +26545,7 @@
         <v>18786.41433943333</v>
       </c>
       <c r="J6" t="n">
-        <v>18786.41433943333</v>
+        <v>18786.41433943334</v>
       </c>
       <c r="K6" t="n">
         <v>18786.41433943333</v>
@@ -26552,7 +26554,7 @@
         <v>18786.41433943333</v>
       </c>
       <c r="M6" t="n">
-        <v>18786.41433943333</v>
+        <v>18786.41433943334</v>
       </c>
       <c r="N6" t="n">
         <v>18786.41433943333</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65190.50680137639</v>
+        <v>53246.27822030622</v>
       </c>
     </row>
     <row r="7">
@@ -26328,7 +26328,7 @@
         <v>30058.26294309333</v>
       </c>
       <c r="G2" t="n">
-        <v>30058.26294309334</v>
+        <v>30058.26294309333</v>
       </c>
       <c r="H2" t="n">
         <v>30058.26294309333</v>
@@ -26346,7 +26346,7 @@
         <v>30058.26294309333</v>
       </c>
       <c r="M2" t="n">
-        <v>30058.26294309334</v>
+        <v>30058.26294309333</v>
       </c>
       <c r="N2" t="n">
         <v>30058.26294309333</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14841.18566056667</v>
+        <v>-16268.77915471157</v>
       </c>
       <c r="C6" t="n">
-        <v>-14841.18566056667</v>
+        <v>-16268.77915471157</v>
       </c>
       <c r="D6" t="n">
-        <v>-14841.18566056667</v>
+        <v>-16268.77915471157</v>
       </c>
       <c r="E6" t="n">
-        <v>18786.41433943333</v>
+        <v>17358.82084528843</v>
       </c>
       <c r="F6" t="n">
-        <v>18786.41433943334</v>
+        <v>17358.82084528843</v>
       </c>
       <c r="G6" t="n">
-        <v>18786.41433943334</v>
+        <v>17358.82084528843</v>
       </c>
       <c r="H6" t="n">
-        <v>18786.41433943334</v>
+        <v>17358.82084528843</v>
       </c>
       <c r="I6" t="n">
-        <v>18786.41433943333</v>
+        <v>17358.82084528843</v>
       </c>
       <c r="J6" t="n">
-        <v>18786.41433943334</v>
+        <v>17358.82084528843</v>
       </c>
       <c r="K6" t="n">
-        <v>18786.41433943333</v>
+        <v>17358.82084528843</v>
       </c>
       <c r="L6" t="n">
-        <v>18786.41433943333</v>
+        <v>17358.82084528843</v>
       </c>
       <c r="M6" t="n">
-        <v>18786.41433943334</v>
+        <v>17358.82084528843</v>
       </c>
       <c r="N6" t="n">
-        <v>18786.41433943333</v>
+        <v>17358.82084528843</v>
       </c>
       <c r="O6" t="n">
-        <v>18786.41433943333</v>
+        <v>17358.82084528843</v>
       </c>
       <c r="P6" t="n">
-        <v>18786.41433943333</v>
+        <v>17358.82084528843</v>
       </c>
     </row>
   </sheetData>
